--- a/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4546E2BE-E0C4-4371-A89F-C01241FDD4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0984773-B5A3-4F7B-AF80-8C68DA35E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D9FED25-2952-411B-93F2-34A2A66C8C89}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{192C7B6B-1103-4D36-A326-766E80D17DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -92,19 +92,19 @@
     <t>42,4%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -119,19 +119,19 @@
     <t>57,6%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -140,7 +140,7 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>85,29%</t>
+    <t>86,83%</t>
   </si>
   <si>
     <t>16,02%</t>
@@ -152,13 +152,13 @@
     <t>19,14%</t>
   </si>
   <si>
-    <t>56,79%</t>
+    <t>50,82%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>14,71%</t>
+    <t>13,17%</t>
   </si>
   <si>
     <t>83,98%</t>
@@ -170,7 +170,7 @@
     <t>80,86%</t>
   </si>
   <si>
-    <t>43,21%</t>
+    <t>49,18%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -191,49 +191,49 @@
     <t>9,02%</t>
   </si>
   <si>
-    <t>40,9%</t>
+    <t>45,12%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>59,1%</t>
+    <t>54,88%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -648,7 +648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41748D41-8950-4588-880E-7223BC377436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1150EFB7-6CEF-4745-948C-189FB5E2EC83}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0984773-B5A3-4F7B-AF80-8C68DA35E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2743E56E-5C5D-4019-8ABB-ED759AE1D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{192C7B6B-1103-4D36-A326-766E80D17DE5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C1F68A6-128D-4728-B8EC-320C1B9629E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -648,7 +648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1150EFB7-6CEF-4745-948C-189FB5E2EC83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C696CD-ACBA-4720-9288-DB11972F98F5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2743E56E-5C5D-4019-8ABB-ED759AE1D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D6EF22-D38C-4E8A-A35C-9C9D812EAD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C1F68A6-128D-4728-B8EC-320C1B9629E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{879515ED-F4C4-443A-9137-C44A1355E22A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -92,19 +92,19 @@
     <t>42,4%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -119,19 +119,19 @@
     <t>57,6%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -140,7 +140,7 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>86,83%</t>
+    <t>85,29%</t>
   </si>
   <si>
     <t>16,02%</t>
@@ -152,13 +152,13 @@
     <t>19,14%</t>
   </si>
   <si>
-    <t>50,82%</t>
+    <t>56,79%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>14,71%</t>
   </si>
   <si>
     <t>83,98%</t>
@@ -170,7 +170,7 @@
     <t>80,86%</t>
   </si>
   <si>
-    <t>49,18%</t>
+    <t>43,21%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -191,49 +191,49 @@
     <t>9,02%</t>
   </si>
   <si>
-    <t>45,12%</t>
+    <t>40,9%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>54,88%</t>
+    <t>59,1%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -648,7 +648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C696CD-ACBA-4720-9288-DB11972F98F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F5944B-0894-4B64-A999-244A76C7C1B8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D6EF22-D38C-4E8A-A35C-9C9D812EAD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88785632-7A6D-40BD-87E1-7CC0AFA54FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{879515ED-F4C4-443A-9137-C44A1355E22A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4822D5E0-F9E0-437B-B93D-358DF6480481}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="68">
   <si>
     <t>Población según si con respecto a la última vez que lo intentaron se quedó embarazada en 2023 (Tasa respuesta: 0,27%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,7 +77,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,22 +89,22 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,64 +116,64 @@
     <t>100%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -182,58 +182,61 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -648,8 +651,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F5944B-0894-4B64-A999-244A76C7C1B8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015C38B1-7AB2-4E1C-BBBE-29C56E4DBF5C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -921,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3192</v>
+        <v>2847</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -936,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>3192</v>
+        <v>2847</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -957,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>4527</v>
+        <v>4345</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -972,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>4336</v>
+        <v>3759</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -987,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>8863</v>
+        <v>8105</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1008,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>4527</v>
+        <v>4345</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>25</v>
@@ -1023,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>7528</v>
+        <v>6606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>25</v>
@@ -1038,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>12055</v>
+        <v>10952</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>25</v>
@@ -1061,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>33</v>
@@ -1076,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>850</v>
+        <v>724</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
@@ -1091,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2106</v>
+        <v>2032</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
@@ -1112,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4443</v>
+        <v>4127</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -1127,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>4460</v>
+        <v>4214</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>41</v>
@@ -1142,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>8902</v>
+        <v>8340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>43</v>
@@ -1163,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>5699</v>
+        <v>5434</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>25</v>
@@ -1178,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>5310</v>
+        <v>4938</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>25</v>
@@ -1193,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>11008</v>
+        <v>10372</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>25</v>
@@ -1265,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3699</v>
+        <v>3529</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>23</v>
@@ -1293,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>3699</v>
+        <v>3529</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>23</v>
@@ -1314,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>3699</v>
+        <v>3529</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>25</v>
@@ -1342,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="7">
-        <v>3699</v>
+        <v>3529</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>25</v>
@@ -1630,55 +1633,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
-      </c>
-      <c r="N22" s="7">
-        <v>5298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,49 +1684,43 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7">
-        <v>12668</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
-      </c>
-      <c r="I23" s="7">
-        <v>8796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M23" s="7">
-        <v>19</v>
-      </c>
-      <c r="N23" s="7">
-        <v>21464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,63 +1729,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
-        <v>13924</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1307</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="7">
-        <v>12838</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="G25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3571</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4879</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7">
+        <v>12001</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="7">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7">
+        <v>7973</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="7">
+        <v>19</v>
+      </c>
+      <c r="N26" s="7">
+        <v>19974</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
+        <v>13308</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7">
+        <v>14</v>
+      </c>
+      <c r="I27" s="7">
+        <v>11544</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="7">
         <v>24</v>
       </c>
-      <c r="N24" s="7">
-        <v>26762</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>66</v>
+      <c r="N27" s="7">
+        <v>24853</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
